--- a/Excel/UI/UIPanelConfig.xlsx
+++ b/Excel/UI/UIPanelConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\Excel\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB90EDDC-726F-41E5-9759-5E7C587F84FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77F7F1E-4378-4E12-96C8-F66D5774E495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="3420" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CN" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>#</t>
   </si>
@@ -33,10 +33,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>辅助说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -56,24 +52,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">UI层级 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UI表 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 10 20 40
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIPanel资源路径  
+指向LocalizationArt的序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI层级
+0 10 20 40
  数字大的显示在前面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIPanel资源路径  指向LocalizationArt的序号</t>
+    <t xml:space="preserve">UIPanel表 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIPanelComponentIndexs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂载的UIPanelComponent 序号列表
+按顺序添加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -147,9 +154,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,106 +436,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F7"/>
+  <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="10.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="4" max="4" width="20.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
       </c>
       <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
         <v>20</v>
       </c>
     </row>

--- a/Excel/UI/UIPanelConfig.xlsx
+++ b/Excel/UI/UIPanelConfig.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\Excel\UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\SJProject\Excel\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77F7F1E-4378-4E12-96C8-F66D5774E495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606"/>
   </bookViews>
   <sheets>
     <sheet name="CN" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>#</t>
   </si>
@@ -81,13 +80,21 @@
   <si>
     <t>挂载的UIPanelComponent 序号列表
 按顺序添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIHUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIBag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,11 +442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -553,6 +560,40 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
